--- a/pin_Berechnungen.xlsx
+++ b/pin_Berechnungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C28165F-F3D7-4D0B-BB9D-C771D0E1F156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7838A4-E7C0-4436-8C59-0E45D4123442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,6 +124,1156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5347660271747793E-2"/>
+          <c:y val="0.17692182705214218"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Siedekurve 0.5/0.4/0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>20</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$F$4,Tabelle1!$N$4,Tabelle1!$F$16,Tabelle1!$N$16,Tabelle1!$F$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2153869501872001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7486534065399804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3451530188194596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0092586800121595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7454191097221896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D664-4B80-90DB-A2A0E596AA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>20</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$F$12,Tabelle1!$N$12,Tabelle1!$F$24,Tabelle1!$N$24,Tabelle1!$F$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.92082760444183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2668281391170102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6582948251432303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0988846823901501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5923387190696299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D664-4B80-90DB-A2A0E596AA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351869584"/>
+        <c:axId val="1351869104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1351869584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>T /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> K</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351869104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1351869104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Druck / bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351869584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63707776859384302"/>
+          <c:y val="0.65979089843066296"/>
+          <c:w val="0.27882194283725587"/>
+          <c:h val="0.12802363652981241"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1066799</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E04F0D2-DD6B-CC66-20B8-B29B0B8B67A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,5 +2587,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pin_Berechnungen.xlsx
+++ b/pin_Berechnungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7838A4-E7C0-4436-8C59-0E45D4123442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E8C70-8214-4409-BF6A-5B080EA2B3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Te</t>
   </si>
   <si>
-    <t>pe(5K overheated) / Pa</t>
-  </si>
-  <si>
     <t>2 = Propane</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">in bar </t>
+  </si>
+  <si>
+    <t>Tevap</t>
+  </si>
+  <si>
+    <t>pevap / Pa</t>
   </si>
 </sst>
 </file>
@@ -204,6 +207,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-71FB-4AA1-BE18-E78C507E8ADE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numLit>
@@ -1239,16 +1247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1543049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1066799</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,7 +1550,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,18 +1567,18 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1582,14 +1590,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <f>A4+5</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -1601,15 +1609,15 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <f>0.5</f>
@@ -1984,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
         <v>3</v>
@@ -2002,16 +2010,16 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>I3+5</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <f>0.5</f>
@@ -2032,7 +2040,7 @@
         <v>4.3451530188194596</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <f>0.5</f>
@@ -2387,15 +2395,15 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <f>0.5</f>

--- a/pin_Berechnungen.xlsx
+++ b/pin_Berechnungen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E8C70-8214-4409-BF6A-5B080EA2B3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D8CCE5-8B1D-4528-A927-59F0A36EE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,6 +144,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>0.9/0.08/0.02</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -150,8 +206,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5347660271747793E-2"/>
-          <c:y val="0.17692182705214218"/>
+          <c:x val="4.8593718847990131E-2"/>
+          <c:y val="0.13693200734112335"/>
           <c:w val="0.90286351706036749"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
@@ -163,7 +219,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Siedekurve 0.5/0.4/0.1</c:v>
+            <c:v>Siedekurve 0.9/0.08/0.02</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -184,109 +240,6 @@
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-71FB-4AA1-BE18-E78C507E8ADE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>20</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Tabelle1!$F$4,Tabelle1!$N$4,Tabelle1!$F$16,Tabelle1!$N$16,Tabelle1!$F$28)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2153869501872001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7486534065399804</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3451530188194596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0092586800121595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7454191097221896</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D664-4B80-90DB-A2A0E596AA6A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -340,7 +293,347 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D664-4B80-90DB-A2A0E596AA6A}"/>
+              <c16:uniqueId val="{00000000-6769-40C0-9ABE-99B594724C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351869584"/>
+        <c:axId val="1351869104"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tevap_0°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1.92</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.92</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.92</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.92</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.92</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6769-40C0-9ABE-99B594724C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tevap_5°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2.27</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2.27</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.27</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2.27</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6769-40C0-9ABE-99B594724C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tevap_10°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2.66</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2.66</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.66</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6769-40C0-9ABE-99B594724C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Tevap_15°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>3.1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6769-40C0-9ABE-99B594724C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Tevap_20°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>3.6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6769-40C0-9ABE-99B594724C93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -401,7 +694,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> K</a:t>
+                  <a:t> °C</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -608,10 +901,1745 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63707776859384302"/>
-          <c:y val="0.65979089843066296"/>
-          <c:w val="0.27882194283725587"/>
-          <c:h val="0.12802363652981241"/>
+          <c:x val="0.58945500195349643"/>
+          <c:y val="0.55868643746026836"/>
+          <c:w val="0.31486697002165259"/>
+          <c:h val="0.26517409373215317"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>0.65/0.28/0.07</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42597730061404548"/>
+          <c:y val="3.0616138948092144E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8593718847990131E-2"/>
+          <c:y val="0.13693200734112335"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Siedekurve 0.65/0.28/0.07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>20</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$F$7,Tabelle1!$N$7,Tabelle1!$F$19,Tabelle1!$N$19,Tabelle1!$F$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7368700316703301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1996993633528503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7188377641838399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2983430475826996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9423346382007605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C25-49BB-8774-A6D248E3307B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351869584"/>
+        <c:axId val="1351869104"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tevap_0°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>2.74</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2.74</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.74</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2.74</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2.74</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C25-49BB-8774-A6D248E3307B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tevap_5°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>3.2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3.2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C25-49BB-8774-A6D248E3307B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tevap_10°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>3.72</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.72</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.72</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C25-49BB-8774-A6D248E3307B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Tevap_15°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>4.3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C25-49BB-8774-A6D248E3307B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Tevap_20°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>4.9000000000000004</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2C25-49BB-8774-A6D248E3307B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351869584"/>
+        <c:axId val="1351869104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1351869584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>T /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> °C</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351869104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1351869104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Druck / bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351869584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58945500195349643"/>
+          <c:y val="0.55868643746026836"/>
+          <c:w val="0.31486697002165259"/>
+          <c:h val="0.26517409373215317"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>0.5/0.4/0.1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.859374766390484E-2"/>
+          <c:y val="0.12468552783303613"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Siedekurve 0.5/0.4/0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-EAFF-4C62-A5A8-D1B01241A653}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>20</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$F$4,Tabelle1!$N$4,Tabelle1!$F$16,Tabelle1!$N$16,Tabelle1!$F$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2153869501872001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7486534065399804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3451530188194596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0092586800121595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7454191097221896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAFF-4C62-A5A8-D1B01241A653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351869584"/>
+        <c:axId val="1351869104"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tevap_0°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>3.22</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.22</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.22</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3.22</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>3.22</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>3.22</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EAFF-4C62-A5A8-D1B01241A653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tevap_5°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>3.75</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.75</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.75</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3.75</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EAFF-4C62-A5A8-D1B01241A653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tevap_10°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>4.3499999999999996</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.3499999999999996</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4.3499999999999996</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EAFF-4C62-A5A8-D1B01241A653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Tevap_15°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EAFF-4C62-A5A8-D1B01241A653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Tevap_20°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>5.8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EAFF-4C62-A5A8-D1B01241A653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351869584"/>
+        <c:axId val="1351869104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1351869584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>T /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> °C</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351869104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1351869104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Druck / bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351869584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71273153176605719"/>
+          <c:y val="0.53725511890662292"/>
+          <c:w val="0.19483451431647064"/>
+          <c:h val="0.2957902631828439"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -727,6 +2755,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1243,31 +3351,1065 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1543049</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E04F0D2-DD6B-CC66-20B8-B29B0B8B67A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85FCFE4-A907-4D77-8757-C4ECCDF8E64A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1276,6 +4418,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A725E730-9222-417D-8029-259D2C1DDC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ABFBE0-BB6C-4812-BAB4-80C2DE8CA627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1550,7 +4768,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,6 +5813,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2EE47-3155-491C-BECD-CAA0637746C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/pin_Berechnungen.xlsx
+++ b/pin_Berechnungen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D8CCE5-8B1D-4528-A927-59F0A36EE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95F30D-5AEE-408A-9A70-1E39780E7233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4388,15 +4396,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>739412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
+      <xdr:colOff>184786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4767,23 +4775,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>3.7486534065399804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>B4+0.05</f>
         <v>0.55000000000000004</v>
@@ -4916,7 +4924,7 @@
         <v>3.56476232782805</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:B12" si="4">B5+0.05</f>
         <v>0.60000000000000009</v>
@@ -4956,7 +4964,7 @@
         <v>3.3820208100851601</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" si="4"/>
         <v>0.65000000000000013</v>
@@ -4996,7 +5004,7 @@
         <v>3.1996993633528503</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="4"/>
         <v>0.70000000000000018</v>
@@ -5036,7 +5044,7 @@
         <v>3.0170465205282899</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="4"/>
         <v>0.75000000000000022</v>
@@ -5076,7 +5084,7 @@
         <v>2.8332794157988603</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="4"/>
         <v>0.80000000000000027</v>
@@ -5116,7 +5124,7 @@
         <v>2.6475755982553095</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="4"/>
         <v>0.85000000000000031</v>
@@ -5156,7 +5164,7 @@
         <v>2.45906583483902</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="4"/>
         <v>0.90000000000000036</v>
@@ -5196,7 +5204,7 @@
         <v>2.2668281391170102</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -5234,7 +5242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>I3+5</f>
         <v>10</v>
@@ -5279,7 +5287,7 @@
         <v>5.0092586800121595</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>B16+0.05</f>
         <v>0.55000000000000004</v>
@@ -5319,7 +5327,7 @@
         <v>4.7708213981802805</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" ref="B18:B24" si="12">B17+0.05</f>
         <v>0.60000000000000009</v>
@@ -5359,7 +5367,7 @@
         <v>4.5341497387523795</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="12"/>
         <v>0.65000000000000013</v>
@@ -5399,7 +5407,7 @@
         <v>4.2983430475826996</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="12"/>
         <v>0.70000000000000018</v>
@@ -5439,7 +5447,7 @@
         <v>4.06248211243319</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="12"/>
         <v>0.75000000000000022</v>
@@ -5479,7 +5487,7 @@
         <v>3.8256179244627</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" si="12"/>
         <v>0.80000000000000027</v>
@@ -5519,7 +5527,7 @@
         <v>3.5867623301161302</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" si="12"/>
         <v>0.85000000000000031</v>
@@ -5559,7 +5567,7 @@
         <v>3.34488105754428</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="12"/>
         <v>0.90000000000000036</v>
@@ -5599,7 +5607,7 @@
         <v>3.0988846823901501</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -5618,8 +5626,26 @@
       <c r="F27" t="s">
         <v>7</v>
       </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -5641,8 +5667,26 @@
         <f>E28/100000</f>
         <v>5.7454191097221896</v>
       </c>
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0.4</v>
+      </c>
+      <c r="K28">
+        <f>1-I28-J28</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28">
+        <v>6.5580999999999996</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>B28+0.05</f>
         <v>0.55000000000000004</v>
@@ -5662,14 +5706,30 @@
         <f t="shared" ref="F29:F36" si="17">E29/100000</f>
         <v>5.4758881599355602</v>
       </c>
+      <c r="I29">
+        <f>I28+0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J29">
+        <f>J28-0.04</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K36" si="18">1-I29-J29</f>
+        <v>8.9999999999999913E-2</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29">
+        <v>6.2548000000000004</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f t="shared" ref="B30:B36" si="18">B29+0.05</f>
+        <f t="shared" ref="B30:B36" si="19">B29+0.05</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C36" si="19">C29-0.04</f>
+        <f t="shared" ref="C30:C36" si="20">C29-0.04</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="D30">
@@ -5683,14 +5743,30 @@
         <f t="shared" si="17"/>
         <v>5.20852746026749</v>
       </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I36" si="21">I29+0.05</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J36" si="22">J29-0.04</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="18"/>
+        <v>7.9999999999999849E-2</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30">
+        <v>5.9541000000000004</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="C31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.28000000000000008</v>
       </c>
       <c r="D31">
@@ -5704,14 +5780,30 @@
         <f t="shared" si="17"/>
         <v>4.9423346382007605</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="21"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="22"/>
+        <v>0.28000000000000008</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="18"/>
+        <v>6.9999999999999785E-2</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31">
+        <v>5.6550000000000002</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="C32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24000000000000007</v>
       </c>
       <c r="D32">
@@ -5725,14 +5817,30 @@
         <f t="shared" si="17"/>
         <v>4.6762987478221101</v>
       </c>
+      <c r="I32">
+        <f t="shared" si="21"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="22"/>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="18"/>
+        <v>5.9999999999999748E-2</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32">
+        <v>5.3563000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.75000000000000022</v>
       </c>
       <c r="C33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.20000000000000007</v>
       </c>
       <c r="D33">
@@ -5746,14 +5854,30 @@
         <f t="shared" si="17"/>
         <v>4.4093810506655302</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="21"/>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="22"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="18"/>
+        <v>4.9999999999999711E-2</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33">
+        <v>5.0568999999999997</v>
+      </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.80000000000000027</v>
       </c>
       <c r="C34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.16000000000000006</v>
       </c>
       <c r="D34">
@@ -5767,14 +5891,30 @@
         <f t="shared" si="17"/>
         <v>4.1405050507249097</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="21"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="22"/>
+        <v>0.16000000000000006</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="18"/>
+        <v>3.9999999999999675E-2</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34">
+        <v>4.7556000000000003</v>
+      </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85000000000000031</v>
       </c>
       <c r="C35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="D35">
@@ -5788,14 +5928,30 @@
         <f t="shared" si="17"/>
         <v>3.8685497202141197</v>
       </c>
+      <c r="I35">
+        <f t="shared" si="21"/>
+        <v>0.85000000000000031</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="22"/>
+        <v>0.12000000000000005</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="18"/>
+        <v>2.9999999999999638E-2</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35">
+        <v>4.4512</v>
+      </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="C36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="D36">
@@ -5808,6 +5964,22 @@
       <c r="F36">
         <f t="shared" si="17"/>
         <v>3.5923387190696299</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="22"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="18"/>
+        <v>1.9999999999999601E-2</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36">
+        <v>4.1425000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5820,11 +5992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2EE47-3155-491C-BECD-CAA0637746C7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
